--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118448.8656299112</v>
+        <v>21033905.63509693</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118448.8656299112</v>
+        <v>21033905.63509693</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22921.63716484033</v>
+        <v>2786563.346462921</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22921.63716484033</v>
+        <v>2786563.346462921</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341560020.257668</v>
+        <v>51376769.32200485</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10227.85691786259</v>
+        <v>1089721.561788623</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19894.33232088787</v>
+        <v>2102996.973571856</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29568.59065087969</v>
+        <v>3136566.249571239</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39583.1985969757</v>
+        <v>4130145.711072454</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49253.45148027595</v>
+        <v>5162441.735965175</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58827.32953038152</v>
+        <v>6215683.588087404</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68345.24476276297</v>
+        <v>7316391.429295508</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77941.16172269736</v>
+        <v>8413380.03646533</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87835.58188509668</v>
+        <v>9449062.536327379</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97409.48334788812</v>
+        <v>10550261.27809929</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106647.9768570915</v>
+        <v>11646386.06512231</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116108.6451342512</v>
+        <v>12742580.38840689</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125509.4181589848</v>
+        <v>13838774.71169147</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135362.3244272622</v>
+        <v>14855787.39838855</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146588.4990141763</v>
+        <v>15616439.54049721</v>
       </c>
     </row>
   </sheetData>
@@ -27055,10 +27055,10 @@
         <v>74.00000000008464</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>289.9999999999154</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>49</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>139</v>
